--- a/Codi_font/Deteccio_COVID/Detec_preliminars/Pleural_Effusion/Resultats_Classificadors_effusion_TFG.xlsx
+++ b/Codi_font/Deteccio_COVID/Detec_preliminars/Pleural_Effusion/Resultats_Classificadors_effusion_TFG.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Marc\Documents\GitHub\TFG_Covid\Codi_font\Deteccio_COVID\Detec_preliminars\Pleural_Effusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F51CA98-47A7-4FE8-B3D4-66761329714E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263DF2AC-97E4-491C-A289-5EC33727DC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A576AB3-B26E-49B0-AC10-96A7047BC3C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Full1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resum" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>#epochs 1r entrenament</t>
   </si>
@@ -51,18 +52,12 @@
     <t>2n entrenament després d'aplicar unfreeze()</t>
   </si>
   <si>
-    <t>CLASSIFICADOR TORAX</t>
-  </si>
-  <si>
     <t>CLASSIFICADOR PULMONS</t>
   </si>
   <si>
     <t>CLASSIFICADOR GRIDS</t>
   </si>
   <si>
-    <t>(IMATGES SENCERES)</t>
-  </si>
-  <si>
     <t>train_loss*</t>
   </si>
   <si>
@@ -78,15 +73,6 @@
     <t>test_accuracy</t>
   </si>
   <si>
-    <t>confusion_matrix_normal</t>
-  </si>
-  <si>
-    <t>confusion_matrix_effusion</t>
-  </si>
-  <si>
-    <t>42/50</t>
-  </si>
-  <si>
     <t>400 normal i 400 effusion</t>
   </si>
   <si>
@@ -123,12 +109,6 @@
     <t>1.33</t>
   </si>
   <si>
-    <t>43/50</t>
-  </si>
-  <si>
-    <t>35/50</t>
-  </si>
-  <si>
     <t>0.002</t>
   </si>
   <si>
@@ -147,21 +127,6 @@
     <t>37/50</t>
   </si>
   <si>
-    <t>LR 2n entrenament: lr_max=slice(1e-6,1e-4)</t>
-  </si>
-  <si>
-    <t>CLASSIFICADOR TORAX (lr_find)</t>
-  </si>
-  <si>
-    <t>CLASSIFICADOR PULMONS (lr_find)</t>
-  </si>
-  <si>
-    <t>CLASSIFICADOR GRIDS (lr_find)</t>
-  </si>
-  <si>
-    <t>PROVES REALITZADES EL 20/5/22</t>
-  </si>
-  <si>
     <t>Train</t>
   </si>
   <si>
@@ -177,20 +142,80 @@
     <t>CONFIGURACIONS ENTRENAMENTS</t>
   </si>
   <si>
-    <t>LR 2n entrenament: lr_max=slice(1e-6,1e-5)</t>
-  </si>
-  <si>
-    <t>lr_max assignat 2n entrenament: slice(1e-5, 1e-4)</t>
-  </si>
-  <si>
     <t>* ESTADÍSTIQUES RESPECTE ÚLTIM EPOCH 2N ENTRENAMENT (epoch 199)</t>
+  </si>
+  <si>
+    <t>(v2ROIs)</t>
+  </si>
+  <si>
+    <t>Realitzada el:</t>
+  </si>
+  <si>
+    <t>MARC PADRÓS JIMÉNEZ</t>
+  </si>
+  <si>
+    <t>PROVES CLASSIFICADORS EFFUSION TFG</t>
+  </si>
+  <si>
+    <t>test_confusion_matrix_normal</t>
+  </si>
+  <si>
+    <t>test_confusion_matrix_effusion</t>
+  </si>
+  <si>
+    <t>Mida imatges</t>
+  </si>
+  <si>
+    <t>512x512</t>
+  </si>
+  <si>
+    <t>300x300</t>
+  </si>
+  <si>
+    <t>128x64</t>
+  </si>
+  <si>
+    <t>Totes les implementacions tenen les mateixes configuracions tret de la ResNet34 de classificació de tòrax</t>
+  </si>
+  <si>
+    <t>En la qual el 1r entrenament és de 50  epochs i el segon és de 100. En quant al repartiment d'imatges,s'aplica un RandomSplitter</t>
+  </si>
+  <si>
+    <t>42/50 = 84% fiabilitat</t>
+  </si>
+  <si>
+    <t>39/50 = 78% fiabilitat</t>
+  </si>
+  <si>
+    <t>També vaig realitzar una altra prova:</t>
+  </si>
+  <si>
+    <t>CLASSIFICADOR TÒRAX</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>35/50 = 70% fiabilitat</t>
+  </si>
+  <si>
+    <t>43/50 = 86% fiabilitat</t>
+  </si>
+  <si>
+    <t>33/50 = 66 % fiabilitat</t>
+  </si>
+  <si>
+    <t>0.78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +265,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -273,19 +320,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -445,37 +479,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,143 +561,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>418553</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>75827</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imatge 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1C140B-A8AD-43AD-97ED-E5B73023C078}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1457325" y="5238750"/>
-          <a:ext cx="4380952" cy="2980952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>963707</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>896473</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imatge 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469E80B1-D5C3-4B6D-BE36-EE484CC62176}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7664825" y="6174441"/>
-          <a:ext cx="4448736" cy="2967651"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>221316</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>21291</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>397253</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>1868</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imatge 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E729614-4166-4E9F-B751-BE49FC5BBE20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13410640" y="6128497"/>
-          <a:ext cx="4411760" cy="3006165"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38EB037-A94F-45A5-BBD9-796C8251BF50}">
-  <dimension ref="A3:P46"/>
+  <dimension ref="A3:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="I11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -945,322 +878,446 @@
     <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="36.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="H7" s="24" t="s">
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>43</v>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="H7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>800</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="H8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="H8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="20">
+      <c r="J8" s="14">
         <v>100</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>44</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="H9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="H9" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="20">
+      <c r="J9" s="14">
         <v>200</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="16">
+        <v>100</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="H10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="29">
+        <v>44701</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="9"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="9"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="29">
+        <v>44701</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1006</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="22">
-        <v>100</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="H10" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1" t="s">
+    </row>
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="9"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="29">
+        <v>44718</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6" t="s">
+      <c r="M22" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="21"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="37"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="J33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="K33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="29">
+        <v>44701</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="L34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1006</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="11"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="K28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="P45" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>